--- a/source/excel/nwsl-2016/nwsl-2016-wnyf-srfc-070916.xlsx
+++ b/source/excel/nwsl-2016/nwsl-2016-wnyf-srfc-070916.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/Desktop/push/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/Desktop/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="2420" windowWidth="23180" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="1140" yWindow="1820" windowWidth="23180" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$1493</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1122,7 +1122,7 @@
     <col min="20" max="20" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>1</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f t="shared" ref="A39:A102" si="0">IF(OR(F39="",F39="-",F39=" "),A38,A38+1)</f>
         <v>3</v>
@@ -3542,7 +3542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3605,7 +3605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3668,7 +3668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3731,7 +3731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3794,7 +3794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3857,7 +3857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3920,7 +3920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3983,7 +3983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4046,7 +4046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4109,7 +4109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4172,7 +4172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4235,7 +4235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4298,7 +4298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4361,7 +4361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4424,7 +4424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4487,7 +4487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4550,7 +4550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4613,7 +4613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4676,7 +4676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4739,7 +4739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4802,7 +4802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4865,7 +4865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4928,7 +4928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4991,7 +4991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5054,7 +5054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5117,7 +5117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5180,7 +5180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5243,7 +5243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5306,7 +5306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5369,7 +5369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5432,7 +5432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5495,7 +5495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5558,7 +5558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5621,7 +5621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5684,7 +5684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5747,7 +5747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5810,7 +5810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5873,7 +5873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5936,7 +5936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5999,7 +5999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6062,7 +6062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6125,7 +6125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6188,7 +6188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6251,7 +6251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6314,7 +6314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6377,7 +6377,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6440,7 +6440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6503,7 +6503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6566,7 +6566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6629,7 +6629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6692,7 +6692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6755,7 +6755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6818,7 +6818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6881,7 +6881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6944,7 +6944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -7007,7 +7007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -7070,7 +7070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -7133,7 +7133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -7196,7 +7196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -7259,7 +7259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -7322,7 +7322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -7385,7 +7385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -7448,7 +7448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -7511,7 +7511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <f t="shared" ref="A103:A166" si="1">IF(OR(F103="",F103="-",F103=" "),A102,A102+1)</f>
         <v>53</v>
@@ -7574,7 +7574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -7637,7 +7637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -7700,7 +7700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -7763,7 +7763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -7826,7 +7826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -7889,7 +7889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -7952,7 +7952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -8015,7 +8015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -8078,7 +8078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -8141,7 +8141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -8204,7 +8204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -8267,7 +8267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -8330,7 +8330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -8393,7 +8393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -8456,7 +8456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -8519,7 +8519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -8582,7 +8582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -8645,7 +8645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -8708,7 +8708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -8771,7 +8771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -8834,7 +8834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -8897,7 +8897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -8960,7 +8960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -9023,7 +9023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -9086,7 +9086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -9149,7 +9149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -9212,7 +9212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -9275,7 +9275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -9338,7 +9338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -9401,7 +9401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -9464,7 +9464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -9527,7 +9527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -9590,7 +9590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -9653,7 +9653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -9716,7 +9716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -9779,7 +9779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -9842,7 +9842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -9905,7 +9905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -9968,7 +9968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -10031,7 +10031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -10094,7 +10094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -10157,7 +10157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -10220,7 +10220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -10283,7 +10283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -10346,7 +10346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -10409,7 +10409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -10472,7 +10472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -10535,7 +10535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -10598,7 +10598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -10661,7 +10661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -10724,7 +10724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -10787,7 +10787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -10850,7 +10850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -10913,7 +10913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -10976,7 +10976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -11039,7 +11039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -11102,7 +11102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -11165,7 +11165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -11228,7 +11228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -11291,7 +11291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -11354,7 +11354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -11417,7 +11417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -11480,7 +11480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -11543,7 +11543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <f t="shared" ref="A167:A230" si="2">IF(OR(F167="",F167="-",F167=" "),A166,A166+1)</f>
         <v>102</v>
@@ -11606,7 +11606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -11669,7 +11669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -11732,7 +11732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -11795,7 +11795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -11858,7 +11858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -11921,7 +11921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -11984,7 +11984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -12047,7 +12047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -12110,7 +12110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -12173,7 +12173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -12236,7 +12236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -12299,7 +12299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -12362,7 +12362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -12425,7 +12425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -12488,7 +12488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -12551,7 +12551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -12614,7 +12614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -12677,7 +12677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -12740,7 +12740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -12803,7 +12803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -12866,7 +12866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -12929,7 +12929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -12992,7 +12992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -13055,7 +13055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -13118,7 +13118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -13181,7 +13181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -13244,7 +13244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -13307,7 +13307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -13370,7 +13370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -13433,7 +13433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -13496,7 +13496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -13559,7 +13559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -13622,7 +13622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -13685,7 +13685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -13748,7 +13748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -13811,7 +13811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -13874,7 +13874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -13937,7 +13937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -14000,7 +14000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -14063,7 +14063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -14126,7 +14126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -14189,7 +14189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -14252,7 +14252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -14315,7 +14315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -14378,7 +14378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -14441,7 +14441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -14504,7 +14504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -14567,7 +14567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -14630,7 +14630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -14693,7 +14693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -14756,7 +14756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -14819,7 +14819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -14882,7 +14882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -14945,7 +14945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -15008,7 +15008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -15071,7 +15071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -15134,7 +15134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -15197,7 +15197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -15260,7 +15260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -15323,7 +15323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -15386,7 +15386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -15449,7 +15449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -15512,7 +15512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -15575,7 +15575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <f t="shared" ref="A231:A294" si="3">IF(OR(F231="",F231="-",F231=" "),A230,A230+1)</f>
         <v>162</v>
@@ -15638,7 +15638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <f t="shared" si="3"/>
         <v>162</v>
@@ -15701,7 +15701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <f t="shared" si="3"/>
         <v>163</v>
@@ -15764,7 +15764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <f t="shared" si="3"/>
         <v>163</v>
@@ -15827,7 +15827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <f t="shared" si="3"/>
         <v>164</v>
@@ -15890,7 +15890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <f t="shared" si="3"/>
         <v>165</v>
@@ -15953,7 +15953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <f t="shared" si="3"/>
         <v>166</v>
@@ -16016,7 +16016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <f t="shared" si="3"/>
         <v>167</v>
@@ -16079,7 +16079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <f t="shared" si="3"/>
         <v>168</v>
@@ -16142,7 +16142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <f t="shared" si="3"/>
         <v>169</v>
@@ -16205,7 +16205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <f t="shared" si="3"/>
         <v>170</v>
@@ -16268,7 +16268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <f t="shared" si="3"/>
         <v>171</v>
@@ -16331,7 +16331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <f t="shared" si="3"/>
         <v>172</v>
@@ -16394,7 +16394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <f t="shared" si="3"/>
         <v>173</v>
@@ -16457,7 +16457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <f t="shared" si="3"/>
         <v>174</v>
@@ -16520,7 +16520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <f t="shared" si="3"/>
         <v>175</v>
@@ -16583,7 +16583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <f t="shared" si="3"/>
         <v>176</v>
@@ -16646,7 +16646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <f t="shared" si="3"/>
         <v>177</v>
@@ -16709,7 +16709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <f t="shared" si="3"/>
         <v>178</v>
@@ -16772,7 +16772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <f t="shared" si="3"/>
         <v>179</v>
@@ -16835,7 +16835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <f t="shared" si="3"/>
         <v>180</v>
@@ -16898,7 +16898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <f t="shared" si="3"/>
         <v>181</v>
@@ -16961,7 +16961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <f t="shared" si="3"/>
         <v>182</v>
@@ -17024,7 +17024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <f t="shared" si="3"/>
         <v>183</v>
@@ -17087,7 +17087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <f t="shared" si="3"/>
         <v>184</v>
@@ -17150,7 +17150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <f t="shared" si="3"/>
         <v>185</v>
@@ -17213,7 +17213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <f t="shared" si="3"/>
         <v>186</v>
@@ -17276,7 +17276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <f t="shared" si="3"/>
         <v>187</v>
@@ -17339,7 +17339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <f t="shared" si="3"/>
         <v>188</v>
@@ -17402,7 +17402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <f t="shared" si="3"/>
         <v>189</v>
@@ -17465,7 +17465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <f t="shared" si="3"/>
         <v>190</v>
@@ -17528,7 +17528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <f t="shared" si="3"/>
         <v>191</v>
@@ -17591,7 +17591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <f t="shared" si="3"/>
         <v>192</v>
@@ -17654,7 +17654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <f t="shared" si="3"/>
         <v>193</v>
@@ -17717,7 +17717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <f t="shared" si="3"/>
         <v>193</v>
@@ -17780,7 +17780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <f t="shared" si="3"/>
         <v>193</v>
@@ -17843,7 +17843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <f t="shared" si="3"/>
         <v>194</v>
@@ -17906,7 +17906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -17969,7 +17969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -18032,7 +18032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -18095,7 +18095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -18158,7 +18158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -18221,7 +18221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -18284,7 +18284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -18347,7 +18347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -18410,7 +18410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -18473,7 +18473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -18536,7 +18536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -18599,7 +18599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -18662,7 +18662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -18725,7 +18725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -18788,7 +18788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -18851,7 +18851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -18914,7 +18914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -18977,7 +18977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -19040,7 +19040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -19103,7 +19103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -19166,7 +19166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -19229,7 +19229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -19292,7 +19292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -19355,7 +19355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -19418,7 +19418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -19481,7 +19481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -19544,7 +19544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -19607,7 +19607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <f t="shared" ref="A295:A358" si="4">IF(OR(F295="",F295="-",F295=" "),A294,A294+1)</f>
         <v>217</v>
@@ -19670,7 +19670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <f t="shared" si="4"/>
         <v>218</v>
@@ -19733,7 +19733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <f t="shared" si="4"/>
         <v>219</v>
@@ -19796,7 +19796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <f t="shared" si="4"/>
         <v>220</v>
@@ -19859,7 +19859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <f t="shared" si="4"/>
         <v>221</v>
@@ -19922,7 +19922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <f t="shared" si="4"/>
         <v>222</v>
@@ -19985,7 +19985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <f t="shared" si="4"/>
         <v>223</v>
@@ -20048,7 +20048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <f t="shared" si="4"/>
         <v>224</v>
@@ -20111,7 +20111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <f t="shared" si="4"/>
         <v>225</v>
@@ -20174,7 +20174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <f t="shared" si="4"/>
         <v>226</v>
@@ -20237,7 +20237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <f t="shared" si="4"/>
         <v>227</v>
@@ -20300,7 +20300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <f t="shared" si="4"/>
         <v>228</v>
@@ -20363,7 +20363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <f t="shared" si="4"/>
         <v>229</v>
@@ -20426,7 +20426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <f t="shared" si="4"/>
         <v>230</v>
@@ -20489,7 +20489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <f t="shared" si="4"/>
         <v>231</v>
@@ -20552,7 +20552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <f t="shared" si="4"/>
         <v>232</v>
@@ -20615,7 +20615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <f t="shared" si="4"/>
         <v>233</v>
@@ -20678,7 +20678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <f t="shared" si="4"/>
         <v>234</v>
@@ -20741,7 +20741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <f t="shared" si="4"/>
         <v>235</v>
@@ -20804,7 +20804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <f t="shared" si="4"/>
         <v>236</v>
@@ -20867,7 +20867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <f t="shared" si="4"/>
         <v>237</v>
@@ -20930,7 +20930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <f t="shared" si="4"/>
         <v>238</v>
@@ -20993,7 +20993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <f t="shared" si="4"/>
         <v>239</v>
@@ -21056,7 +21056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <f t="shared" si="4"/>
         <v>240</v>
@@ -21119,7 +21119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <f t="shared" si="4"/>
         <v>241</v>
@@ -21182,7 +21182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <f t="shared" si="4"/>
         <v>242</v>
@@ -21245,7 +21245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <f t="shared" si="4"/>
         <v>243</v>
@@ -21308,7 +21308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <f t="shared" si="4"/>
         <v>244</v>
@@ -21371,7 +21371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <f t="shared" si="4"/>
         <v>245</v>
@@ -21434,7 +21434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <f t="shared" si="4"/>
         <v>246</v>
@@ -21497,7 +21497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <f t="shared" si="4"/>
         <v>247</v>
@@ -21560,7 +21560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <f t="shared" si="4"/>
         <v>248</v>
@@ -21623,7 +21623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <f t="shared" si="4"/>
         <v>249</v>
@@ -21686,7 +21686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <f t="shared" si="4"/>
         <v>250</v>
@@ -21749,7 +21749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <f t="shared" si="4"/>
         <v>251</v>
@@ -21812,7 +21812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <f t="shared" si="4"/>
         <v>252</v>
@@ -21875,7 +21875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <f t="shared" si="4"/>
         <v>253</v>
@@ -21938,7 +21938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <f t="shared" si="4"/>
         <v>254</v>
@@ -22001,7 +22001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <f t="shared" si="4"/>
         <v>255</v>
@@ -22064,7 +22064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <f t="shared" si="4"/>
         <v>256</v>
@@ -22127,7 +22127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <f t="shared" si="4"/>
         <v>257</v>
@@ -22190,7 +22190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <f t="shared" si="4"/>
         <v>258</v>
@@ -22253,7 +22253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <f t="shared" si="4"/>
         <v>258</v>
@@ -22316,7 +22316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <f t="shared" si="4"/>
         <v>259</v>
@@ -22379,7 +22379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -22442,7 +22442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -22505,7 +22505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -22568,7 +22568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -22631,7 +22631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -22694,7 +22694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -22757,7 +22757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -22820,7 +22820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -22883,7 +22883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -22946,7 +22946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -23009,7 +23009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -23072,7 +23072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -23135,7 +23135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -23198,7 +23198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -23261,7 +23261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -23324,7 +23324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -23387,7 +23387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -23450,7 +23450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -23513,7 +23513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -23576,7 +23576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -23639,7 +23639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <f t="shared" ref="A359:A422" si="5">IF(OR(F359="",F359="-",F359=" "),A358,A358+1)</f>
         <v>277</v>
@@ -23702,7 +23702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <f t="shared" si="5"/>
         <v>278</v>
@@ -23765,7 +23765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <f t="shared" si="5"/>
         <v>278</v>
@@ -23828,7 +23828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <f t="shared" si="5"/>
         <v>279</v>
@@ -23891,7 +23891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <f t="shared" si="5"/>
         <v>280</v>
@@ -23954,7 +23954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <f t="shared" si="5"/>
         <v>281</v>
@@ -24017,7 +24017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <f t="shared" si="5"/>
         <v>282</v>
@@ -24080,7 +24080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <f t="shared" si="5"/>
         <v>283</v>
@@ -24143,7 +24143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <f t="shared" si="5"/>
         <v>284</v>
@@ -24206,7 +24206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <f t="shared" si="5"/>
         <v>285</v>
@@ -24269,7 +24269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <f t="shared" si="5"/>
         <v>286</v>
@@ -24332,7 +24332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <f t="shared" si="5"/>
         <v>287</v>
@@ -24395,7 +24395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <f t="shared" si="5"/>
         <v>288</v>
@@ -24458,7 +24458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <f t="shared" si="5"/>
         <v>289</v>
@@ -24521,7 +24521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <f t="shared" si="5"/>
         <v>290</v>
@@ -24584,7 +24584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <f t="shared" si="5"/>
         <v>291</v>
@@ -24647,7 +24647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <f t="shared" si="5"/>
         <v>292</v>
@@ -24710,7 +24710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <f t="shared" si="5"/>
         <v>292</v>
@@ -24773,7 +24773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <f t="shared" si="5"/>
         <v>293</v>
@@ -24836,7 +24836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <f t="shared" si="5"/>
         <v>293</v>
@@ -24899,7 +24899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <f t="shared" si="5"/>
         <v>294</v>
@@ -24962,7 +24962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <f t="shared" si="5"/>
         <v>295</v>
@@ -25025,7 +25025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <f t="shared" si="5"/>
         <v>296</v>
@@ -25088,7 +25088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <f t="shared" si="5"/>
         <v>297</v>
@@ -25151,7 +25151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <f t="shared" si="5"/>
         <v>298</v>
@@ -25214,7 +25214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <f t="shared" si="5"/>
         <v>299</v>
@@ -25277,7 +25277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <f t="shared" si="5"/>
         <v>300</v>
@@ -25340,7 +25340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <f t="shared" si="5"/>
         <v>301</v>
@@ -25403,7 +25403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <f t="shared" si="5"/>
         <v>301</v>
@@ -25466,7 +25466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <f t="shared" si="5"/>
         <v>302</v>
@@ -25529,7 +25529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <f t="shared" si="5"/>
         <v>303</v>
@@ -25592,7 +25592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <f t="shared" si="5"/>
         <v>304</v>
@@ -25655,7 +25655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <f t="shared" si="5"/>
         <v>305</v>
@@ -25718,7 +25718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <f t="shared" si="5"/>
         <v>306</v>
@@ -25781,7 +25781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <f t="shared" si="5"/>
         <v>307</v>
@@ -25844,7 +25844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <f t="shared" si="5"/>
         <v>308</v>
@@ -25907,7 +25907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <f t="shared" si="5"/>
         <v>308</v>
@@ -25970,7 +25970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <f t="shared" si="5"/>
         <v>309</v>
@@ -26033,7 +26033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <f t="shared" si="5"/>
         <v>310</v>
@@ -26096,7 +26096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <f t="shared" si="5"/>
         <v>311</v>
@@ -26159,7 +26159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <f t="shared" si="5"/>
         <v>311</v>
@@ -26222,7 +26222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <f t="shared" si="5"/>
         <v>312</v>
@@ -26285,7 +26285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <f t="shared" si="5"/>
         <v>313</v>
@@ -26348,7 +26348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <f t="shared" si="5"/>
         <v>314</v>
@@ -26411,7 +26411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <f t="shared" si="5"/>
         <v>315</v>
@@ -26474,7 +26474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <f t="shared" si="5"/>
         <v>316</v>
@@ -26537,7 +26537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <f t="shared" si="5"/>
         <v>317</v>
@@ -26600,7 +26600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <f t="shared" si="5"/>
         <v>318</v>
@@ -26663,7 +26663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <f t="shared" si="5"/>
         <v>319</v>
@@ -26726,7 +26726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <f t="shared" si="5"/>
         <v>320</v>
@@ -26789,7 +26789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <f t="shared" si="5"/>
         <v>321</v>
@@ -26852,7 +26852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <f t="shared" si="5"/>
         <v>322</v>
@@ -26915,7 +26915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <f t="shared" si="5"/>
         <v>323</v>
@@ -26978,7 +26978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -27041,7 +27041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -27104,7 +27104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -27167,7 +27167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -27230,7 +27230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -27293,7 +27293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -27356,7 +27356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -27419,7 +27419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -27482,7 +27482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -27545,7 +27545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -27608,7 +27608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -27671,7 +27671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <f t="shared" ref="A423:A486" si="6">IF(OR(F423="",F423="-",F423=" "),A422,A422+1)</f>
         <v>334</v>
@@ -27734,7 +27734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <f t="shared" si="6"/>
         <v>335</v>
@@ -27797,7 +27797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <f t="shared" si="6"/>
         <v>336</v>
@@ -27860,7 +27860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <f t="shared" si="6"/>
         <v>337</v>
@@ -27923,7 +27923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <f t="shared" si="6"/>
         <v>338</v>
@@ -27986,7 +27986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <f t="shared" si="6"/>
         <v>339</v>
@@ -28049,7 +28049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <f t="shared" si="6"/>
         <v>340</v>
@@ -28112,7 +28112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <f t="shared" si="6"/>
         <v>341</v>
@@ -28175,7 +28175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <f t="shared" si="6"/>
         <v>342</v>
@@ -28238,7 +28238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <f t="shared" si="6"/>
         <v>343</v>
@@ -28301,7 +28301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <f t="shared" si="6"/>
         <v>344</v>
@@ -28364,7 +28364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <f t="shared" si="6"/>
         <v>345</v>
@@ -28427,7 +28427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <f t="shared" si="6"/>
         <v>346</v>
@@ -28490,7 +28490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <f t="shared" si="6"/>
         <v>347</v>
@@ -28553,7 +28553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <f t="shared" si="6"/>
         <v>347</v>
@@ -28616,7 +28616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <f t="shared" si="6"/>
         <v>348</v>
@@ -28679,7 +28679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <f t="shared" si="6"/>
         <v>348</v>
@@ -28742,7 +28742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <f t="shared" si="6"/>
         <v>349</v>
@@ -28805,7 +28805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <f t="shared" si="6"/>
         <v>350</v>
@@ -28868,7 +28868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <f t="shared" si="6"/>
         <v>351</v>
@@ -28931,7 +28931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <f t="shared" si="6"/>
         <v>352</v>
@@ -28994,7 +28994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <f t="shared" si="6"/>
         <v>353</v>
@@ -29057,7 +29057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <f t="shared" si="6"/>
         <v>354</v>
@@ -29120,7 +29120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <f t="shared" si="6"/>
         <v>355</v>
@@ -29183,7 +29183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <f t="shared" si="6"/>
         <v>356</v>
@@ -29246,7 +29246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <f t="shared" si="6"/>
         <v>357</v>
@@ -29309,7 +29309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <f t="shared" si="6"/>
         <v>358</v>
@@ -29372,7 +29372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <f t="shared" si="6"/>
         <v>359</v>
@@ -29435,7 +29435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <f t="shared" si="6"/>
         <v>360</v>
@@ -29498,7 +29498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <f t="shared" si="6"/>
         <v>360</v>
@@ -29561,7 +29561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <f t="shared" si="6"/>
         <v>361</v>
@@ -29624,7 +29624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <f t="shared" si="6"/>
         <v>362</v>
@@ -29687,7 +29687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <f t="shared" si="6"/>
         <v>363</v>
@@ -29750,7 +29750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <f t="shared" si="6"/>
         <v>364</v>
@@ -29813,7 +29813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <f t="shared" si="6"/>
         <v>365</v>
@@ -29876,7 +29876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <f t="shared" si="6"/>
         <v>366</v>
@@ -29939,7 +29939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <f t="shared" si="6"/>
         <v>367</v>
@@ -30002,7 +30002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <f t="shared" si="6"/>
         <v>368</v>
@@ -30065,7 +30065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <f t="shared" si="6"/>
         <v>369</v>
@@ -30128,7 +30128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <f t="shared" si="6"/>
         <v>370</v>
@@ -30191,7 +30191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <f t="shared" si="6"/>
         <v>371</v>
@@ -30254,7 +30254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <f t="shared" si="6"/>
         <v>372</v>
@@ -30317,7 +30317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <f t="shared" si="6"/>
         <v>373</v>
@@ -30380,7 +30380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <f t="shared" si="6"/>
         <v>373</v>
@@ -30443,7 +30443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <f t="shared" si="6"/>
         <v>374</v>
@@ -30506,7 +30506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <f t="shared" si="6"/>
         <v>374</v>
@@ -30569,7 +30569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <f t="shared" si="6"/>
         <v>375</v>
@@ -30632,7 +30632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <f t="shared" si="6"/>
         <v>376</v>
@@ -30695,7 +30695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <f t="shared" si="6"/>
         <v>377</v>
@@ -30758,7 +30758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <f t="shared" si="6"/>
         <v>378</v>
@@ -30821,7 +30821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <f t="shared" si="6"/>
         <v>379</v>
@@ -30884,7 +30884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <f t="shared" si="6"/>
         <v>380</v>
@@ -30947,7 +30947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <f t="shared" si="6"/>
         <v>381</v>
@@ -31010,7 +31010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <f t="shared" si="6"/>
         <v>382</v>
@@ -31073,7 +31073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <f t="shared" si="6"/>
         <v>382</v>
@@ -31136,7 +31136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <f t="shared" si="6"/>
         <v>383</v>
@@ -31199,7 +31199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <f t="shared" si="6"/>
         <v>384</v>
@@ -31262,7 +31262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <f t="shared" si="6"/>
         <v>384</v>
@@ -31325,7 +31325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <f t="shared" si="6"/>
         <v>385</v>
@@ -31388,7 +31388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <f t="shared" si="6"/>
         <v>386</v>
@@ -31451,7 +31451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <f t="shared" si="6"/>
         <v>387</v>
@@ -31514,7 +31514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <f t="shared" si="6"/>
         <v>388</v>
@@ -31577,7 +31577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <f t="shared" si="6"/>
         <v>389</v>
@@ -31640,7 +31640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <f t="shared" si="6"/>
         <v>390</v>
@@ -31703,7 +31703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <f t="shared" ref="A487:A550" si="7">IF(OR(F487="",F487="-",F487=" "),A486,A486+1)</f>
         <v>391</v>
@@ -31766,7 +31766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <f t="shared" si="7"/>
         <v>392</v>
@@ -31829,7 +31829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <f t="shared" si="7"/>
         <v>393</v>
@@ -31892,7 +31892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <f t="shared" si="7"/>
         <v>394</v>
@@ -31955,7 +31955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <f t="shared" si="7"/>
         <v>394</v>
@@ -32018,7 +32018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <f t="shared" si="7"/>
         <v>395</v>
@@ -32081,7 +32081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <f t="shared" si="7"/>
         <v>395</v>
@@ -32144,7 +32144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <f t="shared" si="7"/>
         <v>396</v>
@@ -32207,7 +32207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <f t="shared" si="7"/>
         <v>397</v>
@@ -32270,7 +32270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <f t="shared" si="7"/>
         <v>398</v>
@@ -32333,7 +32333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <f t="shared" si="7"/>
         <v>399</v>
@@ -32396,7 +32396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <f t="shared" si="7"/>
         <v>399</v>
@@ -32459,7 +32459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <f t="shared" si="7"/>
         <v>400</v>
@@ -32522,7 +32522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <f t="shared" si="7"/>
         <v>401</v>
@@ -32585,7 +32585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <f t="shared" si="7"/>
         <v>402</v>
@@ -32648,7 +32648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <f t="shared" si="7"/>
         <v>403</v>
@@ -32711,7 +32711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="503" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <f t="shared" si="7"/>
         <v>404</v>
@@ -32774,7 +32774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="504" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <f t="shared" si="7"/>
         <v>405</v>
@@ -32837,7 +32837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="505" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <f t="shared" si="7"/>
         <v>405</v>
@@ -32900,7 +32900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <f t="shared" si="7"/>
         <v>406</v>
@@ -32963,7 +32963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="507" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <f t="shared" si="7"/>
         <v>407</v>
@@ -33026,7 +33026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <f t="shared" si="7"/>
         <v>408</v>
@@ -33089,7 +33089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <f t="shared" si="7"/>
         <v>409</v>
@@ -33152,7 +33152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <f t="shared" si="7"/>
         <v>410</v>
@@ -33215,7 +33215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <f t="shared" si="7"/>
         <v>411</v>
@@ -33278,7 +33278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <f t="shared" si="7"/>
         <v>412</v>
@@ -33341,7 +33341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="513" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <f t="shared" si="7"/>
         <v>413</v>
@@ -33404,7 +33404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="514" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <f t="shared" si="7"/>
         <v>414</v>
@@ -33467,7 +33467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="515" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <f t="shared" si="7"/>
         <v>415</v>
@@ -33530,7 +33530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="516" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <f t="shared" si="7"/>
         <v>416</v>
@@ -33593,7 +33593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="517" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <f t="shared" si="7"/>
         <v>417</v>
@@ -33656,7 +33656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="518" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <f t="shared" si="7"/>
         <v>418</v>
@@ -33719,7 +33719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="519" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <f t="shared" si="7"/>
         <v>419</v>
@@ -33782,7 +33782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="520" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <f t="shared" si="7"/>
         <v>420</v>
@@ -33845,7 +33845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="521" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <f t="shared" si="7"/>
         <v>421</v>
@@ -33908,7 +33908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="522" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <f t="shared" si="7"/>
         <v>421</v>
@@ -33971,7 +33971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="523" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <f t="shared" si="7"/>
         <v>422</v>
@@ -34034,7 +34034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="524" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <f t="shared" si="7"/>
         <v>423</v>
@@ -34097,7 +34097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="525" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <f t="shared" si="7"/>
         <v>424</v>
@@ -34160,7 +34160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="526" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <f t="shared" si="7"/>
         <v>425</v>
@@ -34223,7 +34223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="527" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <f t="shared" si="7"/>
         <v>426</v>
@@ -34286,7 +34286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="528" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <f t="shared" si="7"/>
         <v>427</v>
@@ -34349,7 +34349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="529" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <f t="shared" si="7"/>
         <v>427</v>
@@ -34412,7 +34412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="530" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <f t="shared" si="7"/>
         <v>428</v>
@@ -34475,7 +34475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="531" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <f t="shared" si="7"/>
         <v>429</v>
@@ -34538,7 +34538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="532" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <f t="shared" si="7"/>
         <v>430</v>
@@ -34601,7 +34601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="533" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <f t="shared" si="7"/>
         <v>431</v>
@@ -34664,7 +34664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="534" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <f t="shared" si="7"/>
         <v>432</v>
@@ -34727,7 +34727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="535" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <f t="shared" si="7"/>
         <v>433</v>
@@ -34790,7 +34790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="536" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <f t="shared" si="7"/>
         <v>434</v>
@@ -34853,7 +34853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="537" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <f t="shared" si="7"/>
         <v>435</v>
@@ -34916,7 +34916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="538" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <f t="shared" si="7"/>
         <v>436</v>
@@ -34979,7 +34979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="539" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <f t="shared" si="7"/>
         <v>437</v>
@@ -35042,7 +35042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="540" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <f t="shared" si="7"/>
         <v>438</v>
@@ -35105,7 +35105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="541" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <f t="shared" si="7"/>
         <v>439</v>
@@ -35168,7 +35168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="542" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <f t="shared" si="7"/>
         <v>440</v>
@@ -35231,7 +35231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="543" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <f t="shared" si="7"/>
         <v>441</v>
@@ -35294,7 +35294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="544" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <f t="shared" si="7"/>
         <v>442</v>
@@ -35357,7 +35357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="545" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <f t="shared" si="7"/>
         <v>443</v>
@@ -35420,7 +35420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="546" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <f t="shared" si="7"/>
         <v>443</v>
@@ -35483,7 +35483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="547" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <f t="shared" si="7"/>
         <v>444</v>
@@ -35546,7 +35546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="548" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <f t="shared" si="7"/>
         <v>445</v>
@@ -35609,7 +35609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="549" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <f t="shared" si="7"/>
         <v>446</v>
@@ -35672,7 +35672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="550" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <f t="shared" si="7"/>
         <v>446</v>
@@ -35735,7 +35735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="551" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <f t="shared" ref="A551:A614" si="8">IF(OR(F551="",F551="-",F551=" "),A550,A550+1)</f>
         <v>447</v>
@@ -35798,7 +35798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="552" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <f t="shared" si="8"/>
         <v>448</v>
@@ -35861,7 +35861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="553" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <f t="shared" si="8"/>
         <v>449</v>
@@ -35924,7 +35924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="554" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <f t="shared" si="8"/>
         <v>450</v>
@@ -35987,7 +35987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="555" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <f t="shared" si="8"/>
         <v>451</v>
@@ -36050,7 +36050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="556" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <f t="shared" si="8"/>
         <v>452</v>
@@ -36113,7 +36113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="557" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <f t="shared" si="8"/>
         <v>453</v>
@@ -36176,7 +36176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="558" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <f t="shared" si="8"/>
         <v>454</v>
@@ -36239,7 +36239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="559" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <f t="shared" si="8"/>
         <v>455</v>
@@ -36302,7 +36302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="560" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <f t="shared" si="8"/>
         <v>456</v>
@@ -36365,7 +36365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="561" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <f t="shared" si="8"/>
         <v>457</v>
@@ -36428,7 +36428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="562" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <f t="shared" si="8"/>
         <v>458</v>
@@ -36491,7 +36491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="563" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <f t="shared" si="8"/>
         <v>459</v>
@@ -36554,7 +36554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="564" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <f t="shared" si="8"/>
         <v>460</v>
@@ -36617,7 +36617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="565" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <f t="shared" si="8"/>
         <v>461</v>
@@ -36680,7 +36680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="566" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <f t="shared" si="8"/>
         <v>462</v>
@@ -36743,7 +36743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="567" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <f t="shared" si="8"/>
         <v>463</v>
@@ -36806,7 +36806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="568" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <f t="shared" si="8"/>
         <v>464</v>
@@ -36869,7 +36869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="569" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <f t="shared" si="8"/>
         <v>465</v>
@@ -36932,7 +36932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="570" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <f t="shared" si="8"/>
         <v>466</v>
@@ -36995,7 +36995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="571" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <f t="shared" si="8"/>
         <v>467</v>
@@ -37058,7 +37058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="572" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <f t="shared" si="8"/>
         <v>468</v>
@@ -37121,7 +37121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="573" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <f t="shared" si="8"/>
         <v>468</v>
@@ -37184,7 +37184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="574" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <f t="shared" si="8"/>
         <v>469</v>
@@ -37247,7 +37247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="575" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <f t="shared" si="8"/>
         <v>470</v>
@@ -37310,7 +37310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="576" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <f t="shared" si="8"/>
         <v>471</v>
@@ -37373,7 +37373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="577" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <f t="shared" si="8"/>
         <v>472</v>
@@ -37436,7 +37436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="578" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <f t="shared" si="8"/>
         <v>472</v>
@@ -37499,7 +37499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="579" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <f t="shared" si="8"/>
         <v>473</v>
@@ -37562,7 +37562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="580" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <f t="shared" si="8"/>
         <v>474</v>
@@ -37625,7 +37625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="581" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <f t="shared" si="8"/>
         <v>475</v>
@@ -37688,7 +37688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="582" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <f t="shared" si="8"/>
         <v>475</v>
@@ -37751,7 +37751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="583" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <f t="shared" si="8"/>
         <v>476</v>
@@ -37814,7 +37814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="584" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <f t="shared" si="8"/>
         <v>477</v>
@@ -37877,7 +37877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="585" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <f t="shared" si="8"/>
         <v>478</v>
@@ -37940,7 +37940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="586" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <f t="shared" si="8"/>
         <v>479</v>
@@ -38003,7 +38003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="587" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <f t="shared" si="8"/>
         <v>480</v>
@@ -38066,7 +38066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="588" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <f t="shared" si="8"/>
         <v>481</v>
@@ -38129,7 +38129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="589" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <f t="shared" si="8"/>
         <v>482</v>
@@ -38192,7 +38192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="590" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <f t="shared" si="8"/>
         <v>483</v>
@@ -38255,7 +38255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="591" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <f t="shared" si="8"/>
         <v>484</v>
@@ -38318,7 +38318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="592" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <f t="shared" si="8"/>
         <v>485</v>
@@ -38381,7 +38381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="593" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <f t="shared" si="8"/>
         <v>486</v>
@@ -38444,7 +38444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="594" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <f t="shared" si="8"/>
         <v>487</v>
@@ -38507,7 +38507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="595" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <f t="shared" si="8"/>
         <v>487</v>
@@ -38570,7 +38570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="596" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <f t="shared" si="8"/>
         <v>488</v>
@@ -38633,7 +38633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="597" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <f t="shared" si="8"/>
         <v>489</v>
@@ -38696,7 +38696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="598" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <f t="shared" si="8"/>
         <v>490</v>
@@ -38759,7 +38759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="599" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <f t="shared" si="8"/>
         <v>491</v>
@@ -38822,7 +38822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="600" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <f t="shared" si="8"/>
         <v>492</v>
@@ -38885,7 +38885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="601" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <f t="shared" si="8"/>
         <v>493</v>
@@ -38948,7 +38948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="602" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <f t="shared" si="8"/>
         <v>494</v>
@@ -39011,7 +39011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="603" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <f t="shared" si="8"/>
         <v>495</v>
@@ -39074,7 +39074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="604" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <f t="shared" si="8"/>
         <v>496</v>
@@ -39137,7 +39137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="605" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <f t="shared" si="8"/>
         <v>497</v>
@@ -39200,7 +39200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="606" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <f t="shared" si="8"/>
         <v>498</v>
@@ -39263,7 +39263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="607" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <f t="shared" si="8"/>
         <v>499</v>
@@ -39326,7 +39326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="608" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <f t="shared" si="8"/>
         <v>500</v>
@@ -39389,7 +39389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="609" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <f t="shared" si="8"/>
         <v>501</v>
@@ -39452,7 +39452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="610" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <f t="shared" si="8"/>
         <v>502</v>
@@ -39515,7 +39515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="611" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <f t="shared" si="8"/>
         <v>503</v>
@@ -39578,7 +39578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="612" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <f t="shared" si="8"/>
         <v>504</v>
@@ -39641,7 +39641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="613" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <f t="shared" si="8"/>
         <v>505</v>
@@ -39704,7 +39704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="614" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <f t="shared" si="8"/>
         <v>506</v>
@@ -39767,7 +39767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="615" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <f t="shared" ref="A615:A678" si="9">IF(OR(F615="",F615="-",F615=" "),A614,A614+1)</f>
         <v>507</v>
@@ -39830,7 +39830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="616" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <f t="shared" si="9"/>
         <v>508</v>
@@ -39893,7 +39893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="617" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <f t="shared" si="9"/>
         <v>509</v>
@@ -39956,7 +39956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="618" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <f t="shared" si="9"/>
         <v>510</v>
@@ -40019,7 +40019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="619" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <f t="shared" si="9"/>
         <v>511</v>
@@ -40082,7 +40082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="620" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <f t="shared" si="9"/>
         <v>512</v>
@@ -40145,7 +40145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="621" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <f t="shared" si="9"/>
         <v>513</v>
@@ -40208,7 +40208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="622" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <f t="shared" si="9"/>
         <v>514</v>
@@ -40271,7 +40271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="623" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <f t="shared" si="9"/>
         <v>515</v>
@@ -40334,7 +40334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="624" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <f t="shared" si="9"/>
         <v>516</v>
@@ -40397,7 +40397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="625" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <f t="shared" si="9"/>
         <v>517</v>
@@ -40460,7 +40460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="626" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <f t="shared" si="9"/>
         <v>517</v>
@@ -40523,7 +40523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="627" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <f t="shared" si="9"/>
         <v>518</v>
@@ -40586,7 +40586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="628" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <f t="shared" si="9"/>
         <v>519</v>
@@ -40649,7 +40649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="629" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <f t="shared" si="9"/>
         <v>520</v>
@@ -40712,7 +40712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="630" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <f t="shared" si="9"/>
         <v>521</v>
@@ -40775,7 +40775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="631" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <f t="shared" si="9"/>
         <v>522</v>
@@ -40838,7 +40838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="632" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <f t="shared" si="9"/>
         <v>523</v>
@@ -40901,7 +40901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="633" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <f t="shared" si="9"/>
         <v>524</v>
@@ -40964,7 +40964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="634" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <f t="shared" si="9"/>
         <v>525</v>
@@ -41027,7 +41027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="635" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <f t="shared" si="9"/>
         <v>526</v>
@@ -41090,7 +41090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="636" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <f t="shared" si="9"/>
         <v>526</v>
@@ -41153,7 +41153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="637" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <f t="shared" si="9"/>
         <v>527</v>
@@ -41216,7 +41216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="638" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <f t="shared" si="9"/>
         <v>528</v>
@@ -41279,7 +41279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="639" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <f t="shared" si="9"/>
         <v>529</v>
@@ -41342,7 +41342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="640" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <f t="shared" si="9"/>
         <v>530</v>
@@ -41405,7 +41405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="641" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <f t="shared" si="9"/>
         <v>531</v>
@@ -41468,7 +41468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="642" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <f t="shared" si="9"/>
         <v>532</v>
@@ -41531,7 +41531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="643" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <f t="shared" si="9"/>
         <v>533</v>
@@ -41594,7 +41594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="644" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <f t="shared" si="9"/>
         <v>534</v>
@@ -41657,7 +41657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="645" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <f t="shared" si="9"/>
         <v>535</v>
@@ -41720,7 +41720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="646" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <f t="shared" si="9"/>
         <v>536</v>
@@ -41783,7 +41783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="647" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <f t="shared" si="9"/>
         <v>537</v>
@@ -41846,7 +41846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="648" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <f t="shared" si="9"/>
         <v>538</v>
@@ -41909,7 +41909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="649" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <f t="shared" si="9"/>
         <v>539</v>
@@ -41972,7 +41972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="650" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <f t="shared" si="9"/>
         <v>540</v>
@@ -42035,7 +42035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="651" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <f t="shared" si="9"/>
         <v>541</v>
@@ -42098,7 +42098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="652" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <f t="shared" si="9"/>
         <v>541</v>
@@ -42161,7 +42161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="653" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <f t="shared" si="9"/>
         <v>542</v>
@@ -42224,7 +42224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="654" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <f t="shared" si="9"/>
         <v>543</v>
@@ -42287,7 +42287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="655" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <f t="shared" si="9"/>
         <v>543</v>
@@ -42350,7 +42350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="656" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <f t="shared" si="9"/>
         <v>544</v>
@@ -42413,7 +42413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="657" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <f t="shared" si="9"/>
         <v>545</v>
@@ -42476,7 +42476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="658" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <f t="shared" si="9"/>
         <v>546</v>
@@ -42539,7 +42539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="659" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <f t="shared" si="9"/>
         <v>547</v>
@@ -42602,7 +42602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="660" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <f t="shared" si="9"/>
         <v>548</v>
@@ -42665,7 +42665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="661" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <f t="shared" si="9"/>
         <v>549</v>
@@ -42728,7 +42728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="662" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <f t="shared" si="9"/>
         <v>550</v>
@@ -42791,7 +42791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="663" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <f t="shared" si="9"/>
         <v>551</v>
@@ -42854,7 +42854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="664" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <f t="shared" si="9"/>
         <v>552</v>
@@ -42917,7 +42917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="665" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <f t="shared" si="9"/>
         <v>552</v>
@@ -42980,7 +42980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="666" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <f t="shared" si="9"/>
         <v>553</v>
@@ -43043,7 +43043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="667" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <f t="shared" si="9"/>
         <v>553</v>
@@ -43106,7 +43106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="668" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <f t="shared" si="9"/>
         <v>554</v>
@@ -43169,7 +43169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="669" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <f t="shared" si="9"/>
         <v>555</v>
@@ -43232,7 +43232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="670" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <f t="shared" si="9"/>
         <v>556</v>
@@ -43295,7 +43295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="671" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <f t="shared" si="9"/>
         <v>557</v>
@@ -43358,7 +43358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="672" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <f t="shared" si="9"/>
         <v>558</v>
@@ -43421,7 +43421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="673" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <f t="shared" si="9"/>
         <v>558</v>
@@ -43484,7 +43484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="674" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <f t="shared" si="9"/>
         <v>559</v>
@@ -43547,7 +43547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="675" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <f t="shared" si="9"/>
         <v>560</v>
@@ -43610,7 +43610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="676" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <f t="shared" si="9"/>
         <v>561</v>
@@ -43673,7 +43673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="677" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <f t="shared" si="9"/>
         <v>562</v>
@@ -43736,7 +43736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="678" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <f t="shared" si="9"/>
         <v>563</v>
@@ -43799,7 +43799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="679" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <f t="shared" ref="A679:A742" si="10">IF(OR(F679="",F679="-",F679=" "),A678,A678+1)</f>
         <v>564</v>
@@ -43862,7 +43862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="680" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <f t="shared" si="10"/>
         <v>565</v>
@@ -43925,7 +43925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="681" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <f t="shared" si="10"/>
         <v>566</v>
@@ -43988,7 +43988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="682" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <f t="shared" si="10"/>
         <v>566</v>
@@ -44051,7 +44051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="683" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <f t="shared" si="10"/>
         <v>567</v>
@@ -44114,7 +44114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="684" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <f t="shared" si="10"/>
         <v>567</v>
@@ -44177,7 +44177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="685" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <f t="shared" si="10"/>
         <v>568</v>
@@ -44240,7 +44240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="686" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <f t="shared" si="10"/>
         <v>569</v>
@@ -44303,7 +44303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="687" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <f t="shared" si="10"/>
         <v>569</v>
@@ -44366,7 +44366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="688" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <f t="shared" si="10"/>
         <v>570</v>
@@ -44429,7 +44429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="689" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <f t="shared" si="10"/>
         <v>571</v>
@@ -44492,7 +44492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="690" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <f t="shared" si="10"/>
         <v>572</v>
@@ -44555,7 +44555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="691" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <f t="shared" si="10"/>
         <v>573</v>
@@ -44618,7 +44618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="692" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <f t="shared" si="10"/>
         <v>574</v>
@@ -44681,7 +44681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="693" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <f t="shared" si="10"/>
         <v>575</v>
@@ -44744,7 +44744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="694" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <f t="shared" si="10"/>
         <v>576</v>
@@ -44807,7 +44807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="695" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <f t="shared" si="10"/>
         <v>577</v>
@@ -44870,7 +44870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="696" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <f t="shared" si="10"/>
         <v>578</v>
@@ -44933,7 +44933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="697" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <f t="shared" si="10"/>
         <v>579</v>
@@ -44996,7 +44996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="698" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <f t="shared" si="10"/>
         <v>580</v>
@@ -45059,7 +45059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="699" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <f t="shared" si="10"/>
         <v>581</v>
@@ -45122,7 +45122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="700" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <f t="shared" si="10"/>
         <v>582</v>
@@ -45185,7 +45185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="701" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <f t="shared" si="10"/>
         <v>583</v>
@@ -45248,7 +45248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="702" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <f t="shared" si="10"/>
         <v>584</v>
@@ -45311,7 +45311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="703" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <f t="shared" si="10"/>
         <v>585</v>
@@ -45374,7 +45374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="704" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <f t="shared" si="10"/>
         <v>586</v>
@@ -45437,7 +45437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="705" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <f t="shared" si="10"/>
         <v>587</v>
@@ -45500,7 +45500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="706" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <f t="shared" si="10"/>
         <v>588</v>
@@ -45563,7 +45563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="707" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <f t="shared" si="10"/>
         <v>589</v>
@@ -45626,7 +45626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="708" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <f t="shared" si="10"/>
         <v>590</v>
@@ -45689,7 +45689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="709" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <f t="shared" si="10"/>
         <v>591</v>
@@ -45752,7 +45752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="710" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <f t="shared" si="10"/>
         <v>592</v>
@@ -45815,7 +45815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="711" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <f t="shared" si="10"/>
         <v>593</v>
@@ -45878,7 +45878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="712" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <f t="shared" si="10"/>
         <v>593</v>
@@ -45941,7 +45941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="713" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <f t="shared" si="10"/>
         <v>594</v>
@@ -46004,7 +46004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="714" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <f t="shared" si="10"/>
         <v>595</v>
@@ -46067,7 +46067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="715" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <f t="shared" si="10"/>
         <v>596</v>
@@ -46130,7 +46130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="716" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <f t="shared" si="10"/>
         <v>597</v>
@@ -46193,7 +46193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="717" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <f t="shared" si="10"/>
         <v>598</v>
@@ -46256,7 +46256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="718" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <f t="shared" si="10"/>
         <v>599</v>
@@ -46319,7 +46319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="719" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <f t="shared" si="10"/>
         <v>600</v>
@@ -46382,7 +46382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="720" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <f t="shared" si="10"/>
         <v>600</v>
@@ -46445,7 +46445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="721" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <f t="shared" si="10"/>
         <v>601</v>
@@ -46508,7 +46508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="722" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <f t="shared" si="10"/>
         <v>601</v>
@@ -46571,7 +46571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="723" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <f t="shared" si="10"/>
         <v>602</v>
@@ -46634,7 +46634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="724" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <f t="shared" si="10"/>
         <v>603</v>
@@ -46697,7 +46697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="725" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <f t="shared" si="10"/>
         <v>604</v>
@@ -46760,7 +46760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="726" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <f t="shared" si="10"/>
         <v>605</v>
@@ -46823,7 +46823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="727" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <f t="shared" si="10"/>
         <v>606</v>
@@ -46886,7 +46886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="728" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <f t="shared" si="10"/>
         <v>607</v>
@@ -46949,7 +46949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="729" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <f t="shared" si="10"/>
         <v>608</v>
@@ -47012,7 +47012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="730" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <f t="shared" si="10"/>
         <v>609</v>
@@ -47075,7 +47075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="731" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <f t="shared" si="10"/>
         <v>610</v>
@@ -47138,7 +47138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="732" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <f t="shared" si="10"/>
         <v>611</v>
@@ -47201,7 +47201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="733" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <f t="shared" si="10"/>
         <v>612</v>
@@ -47264,7 +47264,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="734" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <f t="shared" si="10"/>
         <v>612</v>
@@ -47327,7 +47327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="735" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <f t="shared" si="10"/>
         <v>613</v>
@@ -47390,7 +47390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="736" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <f t="shared" si="10"/>
         <v>614</v>
@@ -47453,7 +47453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="737" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <f t="shared" si="10"/>
         <v>615</v>
@@ -47516,7 +47516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="738" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <f t="shared" si="10"/>
         <v>616</v>
@@ -47579,7 +47579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="739" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <f t="shared" si="10"/>
         <v>617</v>
@@ -47642,7 +47642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="740" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <f t="shared" si="10"/>
         <v>618</v>
@@ -47705,7 +47705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="741" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <f t="shared" si="10"/>
         <v>619</v>
@@ -47768,7 +47768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="742" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <f t="shared" si="10"/>
         <v>620</v>
@@ -47831,7 +47831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="743" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <f t="shared" ref="A743:A806" si="11">IF(OR(F743="",F743="-",F743=" "),A742,A742+1)</f>
         <v>621</v>
@@ -47894,7 +47894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="744" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <f t="shared" si="11"/>
         <v>621</v>
@@ -47957,7 +47957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="745" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <f t="shared" si="11"/>
         <v>622</v>
@@ -48020,7 +48020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="746" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <f t="shared" si="11"/>
         <v>623</v>
@@ -48083,7 +48083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="747" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <f t="shared" si="11"/>
         <v>623</v>
@@ -48146,7 +48146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="748" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <f t="shared" si="11"/>
         <v>624</v>
@@ -48209,7 +48209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="749" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <f t="shared" si="11"/>
         <v>625</v>
@@ -48272,7 +48272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="750" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <f t="shared" si="11"/>
         <v>626</v>
@@ -48335,7 +48335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="751" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <f t="shared" si="11"/>
         <v>627</v>
@@ -48398,7 +48398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="752" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <f t="shared" si="11"/>
         <v>628</v>
@@ -48461,7 +48461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="753" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <f t="shared" si="11"/>
         <v>629</v>
@@ -48524,7 +48524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="754" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <f t="shared" si="11"/>
         <v>630</v>
@@ -48587,7 +48587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="755" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <f t="shared" si="11"/>
         <v>631</v>
@@ -48650,7 +48650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="756" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <f t="shared" si="11"/>
         <v>632</v>
@@ -48713,7 +48713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="757" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <f t="shared" si="11"/>
         <v>633</v>
@@ -48776,7 +48776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="758" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <f t="shared" si="11"/>
         <v>634</v>
@@ -48839,7 +48839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="759" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <f t="shared" si="11"/>
         <v>635</v>
@@ -48902,7 +48902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="760" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <f t="shared" si="11"/>
         <v>636</v>
@@ -48965,7 +48965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="761" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <f t="shared" si="11"/>
         <v>637</v>
@@ -49028,7 +49028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="762" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <f t="shared" si="11"/>
         <v>638</v>
@@ -49091,7 +49091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="763" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <f t="shared" si="11"/>
         <v>639</v>
@@ -49154,7 +49154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="764" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <f t="shared" si="11"/>
         <v>639</v>
@@ -49217,7 +49217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="765" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <f t="shared" si="11"/>
         <v>640</v>
@@ -49280,7 +49280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="766" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <f t="shared" si="11"/>
         <v>640</v>
@@ -49343,7 +49343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="767" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <f t="shared" si="11"/>
         <v>641</v>
@@ -49406,7 +49406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="768" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <f t="shared" si="11"/>
         <v>642</v>
@@ -49469,7 +49469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="769" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <f t="shared" si="11"/>
         <v>642</v>
@@ -49532,7 +49532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="770" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <f t="shared" si="11"/>
         <v>643</v>
@@ -49595,7 +49595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="771" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <f t="shared" si="11"/>
         <v>643</v>
@@ -49658,7 +49658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="772" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <f t="shared" si="11"/>
         <v>644</v>
@@ -49721,7 +49721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="773" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <f t="shared" si="11"/>
         <v>645</v>
@@ -49784,7 +49784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="774" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <f t="shared" si="11"/>
         <v>646</v>
@@ -49847,7 +49847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="775" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <f t="shared" si="11"/>
         <v>647</v>
@@ -49910,7 +49910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="776" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <f t="shared" si="11"/>
         <v>648</v>
@@ -49973,7 +49973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="777" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <f t="shared" si="11"/>
         <v>649</v>
@@ -50036,7 +50036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="778" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <f t="shared" si="11"/>
         <v>650</v>
@@ -50099,7 +50099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="779" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <f t="shared" si="11"/>
         <v>651</v>
@@ -50162,7 +50162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="780" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <f t="shared" si="11"/>
         <v>652</v>
@@ -50225,7 +50225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="781" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <f t="shared" si="11"/>
         <v>653</v>
@@ -50288,7 +50288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="782" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <f t="shared" si="11"/>
         <v>654</v>
@@ -50351,7 +50351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="783" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <f t="shared" si="11"/>
         <v>655</v>
@@ -50414,7 +50414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="784" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <f t="shared" si="11"/>
         <v>656</v>
@@ -50477,7 +50477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="785" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <f t="shared" si="11"/>
         <v>657</v>
@@ -50540,7 +50540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="786" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <f t="shared" si="11"/>
         <v>657</v>
@@ -50603,7 +50603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="787" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <f t="shared" si="11"/>
         <v>658</v>
@@ -50666,7 +50666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="788" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <f t="shared" si="11"/>
         <v>659</v>
@@ -50729,7 +50729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="789" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <f t="shared" si="11"/>
         <v>660</v>
@@ -50792,7 +50792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="790" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <f t="shared" si="11"/>
         <v>660</v>
@@ -50855,7 +50855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="791" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <f t="shared" si="11"/>
         <v>661</v>
@@ -50918,7 +50918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="792" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <f t="shared" si="11"/>
         <v>662</v>
@@ -50981,7 +50981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="793" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:20" ht="14" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <f t="shared" si="11"/>
         <v>663</v>
